--- a/resource/RolesOfLeadershipOverview.xlsx
+++ b/resource/RolesOfLeadershipOverview.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shzhou\Desktop\Learn Python\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shzhou\Desktop\Learn Python\resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -117,7 +117,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -129,7 +129,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thick">
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
@@ -141,7 +141,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="thick">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -156,7 +156,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -165,7 +165,7 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thick">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -174,7 +174,20 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thick">
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
@@ -192,112 +205,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thick">
         <color indexed="64"/>
       </top>
@@ -338,60 +245,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -412,275 +289,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>484911</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>207817</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>727364</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>484908</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Rectangle 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C521768A-6EDE-4E79-8176-C35ED2F30372}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4218711" y="2265217"/>
-          <a:ext cx="585353" cy="866"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent4"/>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>484909</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>242455</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>727362</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>519546</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Rectangle 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7D00579-E666-41CB-9F89-777E2C17C4D5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4218709" y="2109355"/>
-          <a:ext cx="585353" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent3"/>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>450273</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>242455</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>692726</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>519546</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Rectangle 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9E77F1D-E1CB-4601-A61F-97EA89019434}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4184073" y="1947430"/>
-          <a:ext cx="613928" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent2"/>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>432954</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>225137</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>675407</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>502228</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Rectangle 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBA1067F-9732-4573-A74F-088FE0EDAE28}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4166754" y="1777712"/>
-          <a:ext cx="632978" cy="866"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -980,167 +588,80 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D9:U15"/>
+  <dimension ref="D9:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="3" width="9.33203125" style="1"/>
+    <col min="4" max="4" width="54.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="34.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="36" style="1" customWidth="1"/>
+    <col min="7" max="7" width="33.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="38.83203125" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="9" spans="4:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="4:21" ht="21" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="4:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="4:8" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="D10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="4" t="s">
+      <c r="E10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4" t="s">
+      <c r="F10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="5" t="s">
+      <c r="G10" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="7"/>
-      <c r="S10" s="4" t="s">
+      <c r="H10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T10" s="4"/>
-      <c r="U10" s="8"/>
     </row>
-    <row r="11" spans="4:21" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="D11" s="9" t="s">
+    <row r="11" spans="4:8" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="D11" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="11"/>
-      <c r="P11" s="12"/>
-      <c r="Q11" s="13"/>
-      <c r="R11" s="14"/>
-      <c r="S11" s="11"/>
-      <c r="T11" s="11"/>
-      <c r="U11" s="15"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="4:21" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="D12" s="9" t="s">
+    <row r="12" spans="4:8" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="D12" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="11"/>
-      <c r="P12" s="12"/>
-      <c r="Q12" s="13"/>
-      <c r="R12" s="14"/>
-      <c r="S12" s="11"/>
-      <c r="T12" s="11"/>
-      <c r="U12" s="15"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="4:21" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="D13" s="9" t="s">
+    <row r="13" spans="4:8" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="D13" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="11"/>
-      <c r="P13" s="12"/>
-      <c r="Q13" s="13"/>
-      <c r="R13" s="14"/>
-      <c r="S13" s="11"/>
-      <c r="T13" s="11"/>
-      <c r="U13" s="15"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="6"/>
     </row>
-    <row r="14" spans="4:21" ht="21" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D14" s="16" t="s">
+    <row r="14" spans="4:8" ht="21" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D14" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="18"/>
-      <c r="M14" s="18"/>
-      <c r="N14" s="18"/>
-      <c r="O14" s="18"/>
-      <c r="P14" s="18"/>
-      <c r="Q14" s="18"/>
-      <c r="R14" s="18"/>
-      <c r="S14" s="18"/>
-      <c r="T14" s="18"/>
-      <c r="U14" s="19"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
     </row>
-    <row r="15" spans="4:21" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="4:8" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="D12:I12"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="M12:O12"/>
-    <mergeCell ref="P12:R12"/>
-    <mergeCell ref="S12:U12"/>
-    <mergeCell ref="D14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="M14:O14"/>
-    <mergeCell ref="P14:R14"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="D10:I10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="M10:O10"/>
-    <mergeCell ref="P10:R10"/>
-    <mergeCell ref="S10:U10"/>
-    <mergeCell ref="D13:I13"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="M13:O13"/>
-    <mergeCell ref="P13:R13"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="D11:I11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="M11:O11"/>
-    <mergeCell ref="P11:R11"/>
-    <mergeCell ref="S11:U11"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/resource/RolesOfLeadershipOverview.xlsx
+++ b/resource/RolesOfLeadershipOverview.xlsx
@@ -69,7 +69,7 @@
     <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="177" formatCode="0.0_ "/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -96,12 +96,6 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="16"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -117,7 +111,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -126,21 +120,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thick">
         <color indexed="64"/>
       </left>
@@ -162,19 +141,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -245,33 +211,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -591,7 +551,7 @@
   <dimension ref="D9:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD11"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -627,37 +587,37 @@
       <c r="D11" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
       <c r="G11" s="7"/>
-      <c r="H11" s="6"/>
+      <c r="H11" s="7"/>
     </row>
     <row r="12" spans="4:8" ht="20.25" x14ac:dyDescent="0.2">
       <c r="D12" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
       <c r="G12" s="7"/>
-      <c r="H12" s="6"/>
+      <c r="H12" s="7"/>
     </row>
     <row r="13" spans="4:8" ht="20.25" x14ac:dyDescent="0.2">
       <c r="D13" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
       <c r="G13" s="7"/>
-      <c r="H13" s="6"/>
+      <c r="H13" s="7"/>
     </row>
     <row r="14" spans="4:8" ht="21" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
     </row>
     <row r="15" spans="4:8" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>

--- a/resource/RolesOfLeadershipOverview.xlsx
+++ b/resource/RolesOfLeadershipOverview.xlsx
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
   <si>
     <t>Direct Report</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -58,6 +59,10 @@
   </si>
   <si>
     <t>Relationships</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Empowering</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -551,7 +556,7 @@
   <dimension ref="D9:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -624,4 +629,82 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D9:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="35.1640625" customWidth="1"/>
+    <col min="5" max="5" width="36.6640625" customWidth="1"/>
+    <col min="6" max="6" width="31.6640625" customWidth="1"/>
+    <col min="7" max="7" width="39.5" customWidth="1"/>
+    <col min="8" max="8" width="29.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="9" spans="4:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="4:8" ht="29.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="D10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="4:8" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="D11" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+    </row>
+    <row r="12" spans="4:8" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="D12" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+    </row>
+    <row r="13" spans="4:8" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="D13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+    </row>
+    <row r="14" spans="4:8" ht="21" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D14" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+    </row>
+    <row r="15" spans="4:8" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/resource/RolesOfLeadershipOverview.xlsx
+++ b/resource/RolesOfLeadershipOverview.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shzhou\Desktop\Learn Python\resource\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xwcai\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,54 +15,49 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="10">
   <si>
-    <t>Direct Report</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>Relationships</t>
   </si>
   <si>
-    <t>Peer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>Pathfinding</t>
   </si>
   <si>
-    <t>Boss</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Self</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Modeling</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>Aligning</t>
   </si>
   <si>
     <t>Empowering</t>
   </si>
   <si>
-    <t>Aligning</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>Modeling</t>
   </si>
   <si>
-    <t>Pathfinding</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>Self</t>
   </si>
   <si>
-    <t>Relationships</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>Boss</t>
   </si>
   <si>
-    <t>Empowering</t>
+    <t>Peer</t>
+  </si>
+  <si>
+    <t>Direct Report</t>
+  </si>
+  <si>
+    <t>Strongly Agree
+Agree
+Slight Agree
+Slightly disagree
+Disagree
+Strongly Disagree</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -71,10 +66,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="176" formatCode="0_ "/>
-    <numFmt numFmtId="177" formatCode="0.0_ "/>
+    <numFmt numFmtId="176" formatCode="0.0_ "/>
+    <numFmt numFmtId="177" formatCode="0_ "/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -101,6 +96,27 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -116,7 +132,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -212,31 +228,127 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -254,6 +366,1215 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="4.7761532796878843E-2"/>
+          <c:y val="3.2820844414315757E-2"/>
+          <c:w val="0.91106383027341198"/>
+          <c:h val="0.89938204146500034"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Self</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="20000">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="63500">
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000017-47A8-4FA6-A8D2-35ECC543778C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$E$10:$H$10</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Pathfinding</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Aligning</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Empowering</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Modeling</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$11:$H$11</c:f>
+              <c:numCache>
+                <c:formatCode>0_ </c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-47A8-4FA6-A8D2-35ECC543778C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Boss</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="63500">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$E$10:$H$10</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Pathfinding</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Aligning</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Empowering</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Modeling</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$12:$H$12</c:f>
+              <c:numCache>
+                <c:formatCode>0_ </c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>70</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-47A8-4FA6-A8D2-35ECC543778C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Peer</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="63500">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$E$10:$H$10</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Pathfinding</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Aligning</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Empowering</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Modeling</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$13:$H$13</c:f>
+              <c:numCache>
+                <c:formatCode>0_ </c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-47A8-4FA6-A8D2-35ECC543778C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Direct Report</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="63500">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$E$10:$H$10</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Pathfinding</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Aligning</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Empowering</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Modeling</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$14:$H$14</c:f>
+              <c:numCache>
+                <c:formatCode>0_ </c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>71</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-47A8-4FA6-A8D2-35ECC543778C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="10"/>
+        <c:axId val="100"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="10"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr">
+              <a:defRPr lang="zh-CN" altLang="en-US" sz="2400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="bg2">
+                    <a:lumMod val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="100"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="100"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0_ " sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2400" b="1"/>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="10"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="20"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.25484510783390046"/>
+          <c:y val="4.7314802375042889E-2"/>
+          <c:w val="0.57701207125356446"/>
+          <c:h val="0.82269885425998401"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:radarChart>
+        <c:radarStyle val="marker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$D$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Self</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="63500">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$E$10:$H$10</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Pathfinding</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Aligning</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Modeling</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Empowering</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$E$11:$H$11</c:f>
+              <c:numCache>
+                <c:formatCode>0_ </c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-208C-43D2-933D-BD7BB97E6955}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$D$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Boss</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="63500">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$E$10:$H$10</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Pathfinding</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Aligning</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Modeling</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Empowering</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$E$12:$H$12</c:f>
+              <c:numCache>
+                <c:formatCode>0_ </c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>70</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-208C-43D2-933D-BD7BB97E6955}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$D$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Peer</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="20000">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$E$10:$H$10</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Pathfinding</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Aligning</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Modeling</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Empowering</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$E$13:$H$13</c:f>
+              <c:numCache>
+                <c:formatCode>0_ </c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-208C-43D2-933D-BD7BB97E6955}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$D$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Direct Report</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="63500">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$E$10:$H$10</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Pathfinding</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Aligning</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Modeling</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Empowering</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$E$14:$H$14</c:f>
+              <c:numCache>
+                <c:formatCode>0_ </c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>71</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-208C-43D2-933D-BD7BB97E6955}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="10"/>
+        <c:axId val="100"/>
+      </c:radarChart>
+      <c:catAx>
+        <c:axId val="10"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2400" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="bg2">
+                    <a:lumMod val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="100"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="100"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="50"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="15875"/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0_ " sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800"/>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="10"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="10"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="bg2">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="lgDash"/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>408212</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>79374</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="14911163" cy="8778876"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>421820</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="15119805" cy="10604500"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3453742</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>207816</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4354286</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>484907</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rectangle 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9ACB5F13-4BB7-4465-B814-623B4D01626D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5045778" y="4670959"/>
+          <a:ext cx="900544" cy="277091"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3453740</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>239981</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4354284</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>517072</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Rectangle 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A3CD624-51BE-4594-919B-754C02A0A79A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5045776" y="3995552"/>
+          <a:ext cx="900544" cy="277091"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3419104</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>237506</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4319648</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>514597</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Rectangle 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19723050-D136-429D-AC9D-023CE73AD42B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5011140" y="3285506"/>
+          <a:ext cx="900544" cy="277091"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3401785</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>217714</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4302329</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>494805</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Rectangle 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{868E25AF-D08F-4EEA-89B5-58FD20BD2896}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4993821" y="2558143"/>
+          <a:ext cx="900544" cy="277091"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Analysis Jessica"/>
+      <sheetName val="Report Jessica"/>
+      <sheetName val="Analysis PZ"/>
+      <sheetName val="Report PZ"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3">
+        <row r="33">
+          <cell r="A33" t="str">
+            <v>Srongly Agree
+Agree
+Slightly Agree
+Slightly Disagree
+Disagree
+Strongly Disagree</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -553,81 +1874,385 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D9:H15"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:H127"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="A78" sqref="A78:C127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="9.33203125" style="1"/>
-    <col min="4" max="4" width="54.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="34.33203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="36" style="1" customWidth="1"/>
-    <col min="7" max="7" width="33.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="38.83203125" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="78.33203125" style="1" customWidth="1"/>
+    <col min="5" max="8" width="47.33203125" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="9" spans="4:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="4:8" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="D10" s="2" t="s">
+    <row r="1" spans="4:8" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="4:8" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="4:8" ht="67.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="D10" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="4:8" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D11" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="12">
+        <v>100</v>
+      </c>
+      <c r="F11" s="12">
+        <v>64</v>
+      </c>
+      <c r="G11" s="12">
+        <v>60</v>
+      </c>
+      <c r="H11" s="13">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="4:8" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D12" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="12">
+        <v>66</v>
+      </c>
+      <c r="F12" s="12">
+        <v>53</v>
+      </c>
+      <c r="G12" s="12">
+        <v>58</v>
+      </c>
+      <c r="H12" s="13">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="4:8" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D13" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="12">
+        <v>61</v>
+      </c>
+      <c r="F13" s="12">
+        <v>64</v>
+      </c>
+      <c r="G13" s="12">
+        <v>60</v>
+      </c>
+      <c r="H13" s="13">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="4:8" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D14" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="4:8" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="D11" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-    </row>
-    <row r="12" spans="4:8" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="D12" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-    </row>
-    <row r="13" spans="4:8" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="D13" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-    </row>
-    <row r="14" spans="4:8" ht="21" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D14" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-    </row>
-    <row r="15" spans="4:8" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
+      <c r="E14" s="15">
+        <v>70</v>
+      </c>
+      <c r="F14" s="15">
+        <v>53</v>
+      </c>
+      <c r="G14" s="15">
+        <v>56</v>
+      </c>
+      <c r="H14" s="16">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="4:8" ht="55.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="D15" s="18"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+    </row>
+    <row r="16" spans="4:8" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D16" s="18"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+    </row>
+    <row r="75" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="78" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B78" s="17"/>
+      <c r="C78" s="17"/>
+    </row>
+    <row r="79" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="17"/>
+      <c r="B79" s="17"/>
+      <c r="C79" s="17"/>
+    </row>
+    <row r="80" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="17"/>
+      <c r="B80" s="17"/>
+      <c r="C80" s="17"/>
+    </row>
+    <row r="81" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="17"/>
+      <c r="B81" s="17"/>
+      <c r="C81" s="17"/>
+    </row>
+    <row r="82" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="17"/>
+      <c r="B82" s="17"/>
+      <c r="C82" s="17"/>
+    </row>
+    <row r="83" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="17"/>
+      <c r="B83" s="17"/>
+      <c r="C83" s="17"/>
+    </row>
+    <row r="84" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="17"/>
+      <c r="B84" s="17"/>
+      <c r="C84" s="17"/>
+    </row>
+    <row r="85" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="17"/>
+      <c r="B85" s="17"/>
+      <c r="C85" s="17"/>
+    </row>
+    <row r="86" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="17"/>
+      <c r="B86" s="17"/>
+      <c r="C86" s="17"/>
+    </row>
+    <row r="87" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="17"/>
+      <c r="B87" s="17"/>
+      <c r="C87" s="17"/>
+    </row>
+    <row r="88" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="17"/>
+      <c r="B88" s="17"/>
+      <c r="C88" s="17"/>
+    </row>
+    <row r="89" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="17"/>
+      <c r="B89" s="17"/>
+      <c r="C89" s="17"/>
+    </row>
+    <row r="90" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="17"/>
+      <c r="B90" s="17"/>
+      <c r="C90" s="17"/>
+    </row>
+    <row r="91" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="17"/>
+      <c r="B91" s="17"/>
+      <c r="C91" s="17"/>
+    </row>
+    <row r="92" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="17"/>
+      <c r="B92" s="17"/>
+      <c r="C92" s="17"/>
+    </row>
+    <row r="93" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="17"/>
+      <c r="B93" s="17"/>
+      <c r="C93" s="17"/>
+    </row>
+    <row r="94" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="17"/>
+      <c r="B94" s="17"/>
+      <c r="C94" s="17"/>
+    </row>
+    <row r="95" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="17"/>
+      <c r="B95" s="17"/>
+      <c r="C95" s="17"/>
+    </row>
+    <row r="96" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="17"/>
+      <c r="B96" s="17"/>
+      <c r="C96" s="17"/>
+    </row>
+    <row r="97" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="17"/>
+      <c r="B97" s="17"/>
+      <c r="C97" s="17"/>
+    </row>
+    <row r="98" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="17"/>
+      <c r="B98" s="17"/>
+      <c r="C98" s="17"/>
+    </row>
+    <row r="99" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="17"/>
+      <c r="B99" s="17"/>
+      <c r="C99" s="17"/>
+    </row>
+    <row r="100" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="17"/>
+      <c r="B100" s="17"/>
+      <c r="C100" s="17"/>
+    </row>
+    <row r="101" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="17"/>
+      <c r="B101" s="17"/>
+      <c r="C101" s="17"/>
+    </row>
+    <row r="102" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="17"/>
+      <c r="B102" s="17"/>
+      <c r="C102" s="17"/>
+    </row>
+    <row r="103" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="17"/>
+      <c r="B103" s="17"/>
+      <c r="C103" s="17"/>
+    </row>
+    <row r="104" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="17"/>
+      <c r="B104" s="17"/>
+      <c r="C104" s="17"/>
+    </row>
+    <row r="105" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="17"/>
+      <c r="B105" s="17"/>
+      <c r="C105" s="17"/>
+    </row>
+    <row r="106" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="17"/>
+      <c r="B106" s="17"/>
+      <c r="C106" s="17"/>
+    </row>
+    <row r="107" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="17"/>
+      <c r="B107" s="17"/>
+      <c r="C107" s="17"/>
+    </row>
+    <row r="108" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="17"/>
+      <c r="B108" s="17"/>
+      <c r="C108" s="17"/>
+    </row>
+    <row r="109" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="17"/>
+      <c r="B109" s="17"/>
+      <c r="C109" s="17"/>
+    </row>
+    <row r="110" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="17"/>
+      <c r="B110" s="17"/>
+      <c r="C110" s="17"/>
+    </row>
+    <row r="111" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="17"/>
+      <c r="B111" s="17"/>
+      <c r="C111" s="17"/>
+    </row>
+    <row r="112" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="17"/>
+      <c r="B112" s="17"/>
+      <c r="C112" s="17"/>
+    </row>
+    <row r="113" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="17"/>
+      <c r="B113" s="17"/>
+      <c r="C113" s="17"/>
+    </row>
+    <row r="114" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="17"/>
+      <c r="B114" s="17"/>
+      <c r="C114" s="17"/>
+    </row>
+    <row r="115" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="17"/>
+      <c r="B115" s="17"/>
+      <c r="C115" s="17"/>
+    </row>
+    <row r="116" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="17"/>
+      <c r="B116" s="17"/>
+      <c r="C116" s="17"/>
+    </row>
+    <row r="117" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="17"/>
+      <c r="B117" s="17"/>
+      <c r="C117" s="17"/>
+    </row>
+    <row r="118" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="17"/>
+      <c r="B118" s="17"/>
+      <c r="C118" s="17"/>
+    </row>
+    <row r="119" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="17"/>
+      <c r="B119" s="17"/>
+      <c r="C119" s="17"/>
+    </row>
+    <row r="120" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="17"/>
+      <c r="B120" s="17"/>
+      <c r="C120" s="17"/>
+    </row>
+    <row r="121" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="17"/>
+      <c r="B121" s="17"/>
+      <c r="C121" s="17"/>
+    </row>
+    <row r="122" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A122" s="17"/>
+      <c r="B122" s="17"/>
+      <c r="C122" s="17"/>
+    </row>
+    <row r="123" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A123" s="17"/>
+      <c r="B123" s="17"/>
+      <c r="C123" s="17"/>
+    </row>
+    <row r="124" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A124" s="17"/>
+      <c r="B124" s="17"/>
+      <c r="C124" s="17"/>
+    </row>
+    <row r="125" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A125" s="17"/>
+      <c r="B125" s="17"/>
+      <c r="C125" s="17"/>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A126" s="17"/>
+      <c r="B126" s="17"/>
+      <c r="C126" s="17"/>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A127" s="17"/>
+      <c r="B127" s="17"/>
+      <c r="C127" s="17"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A78:C127"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="33" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -636,7 +2261,7 @@
   <dimension ref="D9:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -648,61 +2273,93 @@
     <col min="8" max="8" width="29.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="9" spans="4:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="4:8" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="4:8" ht="29.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="D10" s="2" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>4</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="4:8" ht="20.25" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="4:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D11" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-    </row>
-    <row r="12" spans="4:8" ht="20.25" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="E11" s="6">
+        <v>100</v>
+      </c>
+      <c r="F11" s="6">
+        <v>64</v>
+      </c>
+      <c r="G11" s="6">
+        <v>60</v>
+      </c>
+      <c r="H11" s="6">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="4:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D12" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-    </row>
-    <row r="13" spans="4:8" ht="20.25" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="E12" s="6">
+        <v>66</v>
+      </c>
+      <c r="F12" s="6">
+        <v>53</v>
+      </c>
+      <c r="G12" s="6">
+        <v>58</v>
+      </c>
+      <c r="H12" s="6">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="4:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D13" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-    </row>
-    <row r="14" spans="4:8" ht="21" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D14" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-    </row>
-    <row r="15" spans="4:8" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
+        <v>7</v>
+      </c>
+      <c r="E13" s="6">
+        <v>61</v>
+      </c>
+      <c r="F13" s="6">
+        <v>64</v>
+      </c>
+      <c r="G13" s="6">
+        <v>60</v>
+      </c>
+      <c r="H13" s="6">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="4:8" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D14" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="6">
+        <v>70</v>
+      </c>
+      <c r="F14" s="6">
+        <v>53</v>
+      </c>
+      <c r="G14" s="6">
+        <v>56</v>
+      </c>
+      <c r="H14" s="6">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="4:8" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/resource/RolesOfLeadershipOverview.xlsx
+++ b/resource/RolesOfLeadershipOverview.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xwcai\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shzhou\Desktop\Learn Python\resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,9 +15,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -342,14 +339,14 @@
     <xf numFmtId="177" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -413,7 +410,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="20000">
+            <a:ln w="63500">
               <a:prstDash val="solid"/>
             </a:ln>
           </c:spPr>
@@ -467,10 +464,10 @@
                   <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>60</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>64</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -885,10 +882,10 @@
                   <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>60</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>64</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -983,7 +980,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="20000">
+            <a:ln w="63500">
               <a:prstDash val="solid"/>
             </a:ln>
           </c:spPr>
@@ -1547,36 +1544,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Analysis Jessica"/>
-      <sheetName val="Report Jessica"/>
-      <sheetName val="Analysis PZ"/>
-      <sheetName val="Report PZ"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3">
-        <row r="33">
-          <cell r="A33" t="str">
-            <v>Srongly Agree
-Agree
-Slightly Agree
-Slightly Disagree
-Disagree
-Strongly Disagree</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1879,8 +1846,8 @@
   </sheetPr>
   <dimension ref="A1:H127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="A78" sqref="A78:C127"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="P57" sqref="P57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1921,10 +1888,10 @@
         <v>64</v>
       </c>
       <c r="G11" s="12">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="H11" s="13">
-        <v>64</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="4:8" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1979,271 +1946,271 @@
       </c>
     </row>
     <row r="15" spans="4:8" ht="55.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="D15" s="18"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
     </row>
     <row r="16" spans="4:8" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D16" s="18"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
     </row>
     <row r="75" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="78" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="17" t="s">
+      <c r="A78" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B78" s="17"/>
-      <c r="C78" s="17"/>
+      <c r="B78" s="19"/>
+      <c r="C78" s="19"/>
     </row>
     <row r="79" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="17"/>
-      <c r="B79" s="17"/>
-      <c r="C79" s="17"/>
+      <c r="A79" s="19"/>
+      <c r="B79" s="19"/>
+      <c r="C79" s="19"/>
     </row>
     <row r="80" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="17"/>
-      <c r="B80" s="17"/>
-      <c r="C80" s="17"/>
+      <c r="A80" s="19"/>
+      <c r="B80" s="19"/>
+      <c r="C80" s="19"/>
     </row>
     <row r="81" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="17"/>
-      <c r="B81" s="17"/>
-      <c r="C81" s="17"/>
+      <c r="A81" s="19"/>
+      <c r="B81" s="19"/>
+      <c r="C81" s="19"/>
     </row>
     <row r="82" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="17"/>
-      <c r="B82" s="17"/>
-      <c r="C82" s="17"/>
+      <c r="A82" s="19"/>
+      <c r="B82" s="19"/>
+      <c r="C82" s="19"/>
     </row>
     <row r="83" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="17"/>
-      <c r="B83" s="17"/>
-      <c r="C83" s="17"/>
+      <c r="A83" s="19"/>
+      <c r="B83" s="19"/>
+      <c r="C83" s="19"/>
     </row>
     <row r="84" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="17"/>
-      <c r="B84" s="17"/>
-      <c r="C84" s="17"/>
+      <c r="A84" s="19"/>
+      <c r="B84" s="19"/>
+      <c r="C84" s="19"/>
     </row>
     <row r="85" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="17"/>
-      <c r="B85" s="17"/>
-      <c r="C85" s="17"/>
+      <c r="A85" s="19"/>
+      <c r="B85" s="19"/>
+      <c r="C85" s="19"/>
     </row>
     <row r="86" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="17"/>
-      <c r="B86" s="17"/>
-      <c r="C86" s="17"/>
+      <c r="A86" s="19"/>
+      <c r="B86" s="19"/>
+      <c r="C86" s="19"/>
     </row>
     <row r="87" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="17"/>
-      <c r="B87" s="17"/>
-      <c r="C87" s="17"/>
+      <c r="A87" s="19"/>
+      <c r="B87" s="19"/>
+      <c r="C87" s="19"/>
     </row>
     <row r="88" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="17"/>
-      <c r="B88" s="17"/>
-      <c r="C88" s="17"/>
+      <c r="A88" s="19"/>
+      <c r="B88" s="19"/>
+      <c r="C88" s="19"/>
     </row>
     <row r="89" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="17"/>
-      <c r="B89" s="17"/>
-      <c r="C89" s="17"/>
+      <c r="A89" s="19"/>
+      <c r="B89" s="19"/>
+      <c r="C89" s="19"/>
     </row>
     <row r="90" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="17"/>
-      <c r="B90" s="17"/>
-      <c r="C90" s="17"/>
+      <c r="A90" s="19"/>
+      <c r="B90" s="19"/>
+      <c r="C90" s="19"/>
     </row>
     <row r="91" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="17"/>
-      <c r="B91" s="17"/>
-      <c r="C91" s="17"/>
+      <c r="A91" s="19"/>
+      <c r="B91" s="19"/>
+      <c r="C91" s="19"/>
     </row>
     <row r="92" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="17"/>
-      <c r="B92" s="17"/>
-      <c r="C92" s="17"/>
+      <c r="A92" s="19"/>
+      <c r="B92" s="19"/>
+      <c r="C92" s="19"/>
     </row>
     <row r="93" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="17"/>
-      <c r="B93" s="17"/>
-      <c r="C93" s="17"/>
+      <c r="A93" s="19"/>
+      <c r="B93" s="19"/>
+      <c r="C93" s="19"/>
     </row>
     <row r="94" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="17"/>
-      <c r="B94" s="17"/>
-      <c r="C94" s="17"/>
+      <c r="A94" s="19"/>
+      <c r="B94" s="19"/>
+      <c r="C94" s="19"/>
     </row>
     <row r="95" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="17"/>
-      <c r="B95" s="17"/>
-      <c r="C95" s="17"/>
+      <c r="A95" s="19"/>
+      <c r="B95" s="19"/>
+      <c r="C95" s="19"/>
     </row>
     <row r="96" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="17"/>
-      <c r="B96" s="17"/>
-      <c r="C96" s="17"/>
+      <c r="A96" s="19"/>
+      <c r="B96" s="19"/>
+      <c r="C96" s="19"/>
     </row>
     <row r="97" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="17"/>
-      <c r="B97" s="17"/>
-      <c r="C97" s="17"/>
+      <c r="A97" s="19"/>
+      <c r="B97" s="19"/>
+      <c r="C97" s="19"/>
     </row>
     <row r="98" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="17"/>
-      <c r="B98" s="17"/>
-      <c r="C98" s="17"/>
+      <c r="A98" s="19"/>
+      <c r="B98" s="19"/>
+      <c r="C98" s="19"/>
     </row>
     <row r="99" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="17"/>
-      <c r="B99" s="17"/>
-      <c r="C99" s="17"/>
+      <c r="A99" s="19"/>
+      <c r="B99" s="19"/>
+      <c r="C99" s="19"/>
     </row>
     <row r="100" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="17"/>
-      <c r="B100" s="17"/>
-      <c r="C100" s="17"/>
+      <c r="A100" s="19"/>
+      <c r="B100" s="19"/>
+      <c r="C100" s="19"/>
     </row>
     <row r="101" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="17"/>
-      <c r="B101" s="17"/>
-      <c r="C101" s="17"/>
+      <c r="A101" s="19"/>
+      <c r="B101" s="19"/>
+      <c r="C101" s="19"/>
     </row>
     <row r="102" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="17"/>
-      <c r="B102" s="17"/>
-      <c r="C102" s="17"/>
+      <c r="A102" s="19"/>
+      <c r="B102" s="19"/>
+      <c r="C102" s="19"/>
     </row>
     <row r="103" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="17"/>
-      <c r="B103" s="17"/>
-      <c r="C103" s="17"/>
+      <c r="A103" s="19"/>
+      <c r="B103" s="19"/>
+      <c r="C103" s="19"/>
     </row>
     <row r="104" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="17"/>
-      <c r="B104" s="17"/>
-      <c r="C104" s="17"/>
+      <c r="A104" s="19"/>
+      <c r="B104" s="19"/>
+      <c r="C104" s="19"/>
     </row>
     <row r="105" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="17"/>
-      <c r="B105" s="17"/>
-      <c r="C105" s="17"/>
+      <c r="A105" s="19"/>
+      <c r="B105" s="19"/>
+      <c r="C105" s="19"/>
     </row>
     <row r="106" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="17"/>
-      <c r="B106" s="17"/>
-      <c r="C106" s="17"/>
+      <c r="A106" s="19"/>
+      <c r="B106" s="19"/>
+      <c r="C106" s="19"/>
     </row>
     <row r="107" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="17"/>
-      <c r="B107" s="17"/>
-      <c r="C107" s="17"/>
+      <c r="A107" s="19"/>
+      <c r="B107" s="19"/>
+      <c r="C107" s="19"/>
     </row>
     <row r="108" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="17"/>
-      <c r="B108" s="17"/>
-      <c r="C108" s="17"/>
+      <c r="A108" s="19"/>
+      <c r="B108" s="19"/>
+      <c r="C108" s="19"/>
     </row>
     <row r="109" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="17"/>
-      <c r="B109" s="17"/>
-      <c r="C109" s="17"/>
+      <c r="A109" s="19"/>
+      <c r="B109" s="19"/>
+      <c r="C109" s="19"/>
     </row>
     <row r="110" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="17"/>
-      <c r="B110" s="17"/>
-      <c r="C110" s="17"/>
+      <c r="A110" s="19"/>
+      <c r="B110" s="19"/>
+      <c r="C110" s="19"/>
     </row>
     <row r="111" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="17"/>
-      <c r="B111" s="17"/>
-      <c r="C111" s="17"/>
+      <c r="A111" s="19"/>
+      <c r="B111" s="19"/>
+      <c r="C111" s="19"/>
     </row>
     <row r="112" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="17"/>
-      <c r="B112" s="17"/>
-      <c r="C112" s="17"/>
+      <c r="A112" s="19"/>
+      <c r="B112" s="19"/>
+      <c r="C112" s="19"/>
     </row>
     <row r="113" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="17"/>
-      <c r="B113" s="17"/>
-      <c r="C113" s="17"/>
+      <c r="A113" s="19"/>
+      <c r="B113" s="19"/>
+      <c r="C113" s="19"/>
     </row>
     <row r="114" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="17"/>
-      <c r="B114" s="17"/>
-      <c r="C114" s="17"/>
+      <c r="A114" s="19"/>
+      <c r="B114" s="19"/>
+      <c r="C114" s="19"/>
     </row>
     <row r="115" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="17"/>
-      <c r="B115" s="17"/>
-      <c r="C115" s="17"/>
+      <c r="A115" s="19"/>
+      <c r="B115" s="19"/>
+      <c r="C115" s="19"/>
     </row>
     <row r="116" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="17"/>
-      <c r="B116" s="17"/>
-      <c r="C116" s="17"/>
+      <c r="A116" s="19"/>
+      <c r="B116" s="19"/>
+      <c r="C116" s="19"/>
     </row>
     <row r="117" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="17"/>
-      <c r="B117" s="17"/>
-      <c r="C117" s="17"/>
+      <c r="A117" s="19"/>
+      <c r="B117" s="19"/>
+      <c r="C117" s="19"/>
     </row>
     <row r="118" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="17"/>
-      <c r="B118" s="17"/>
-      <c r="C118" s="17"/>
+      <c r="A118" s="19"/>
+      <c r="B118" s="19"/>
+      <c r="C118" s="19"/>
     </row>
     <row r="119" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="17"/>
-      <c r="B119" s="17"/>
-      <c r="C119" s="17"/>
+      <c r="A119" s="19"/>
+      <c r="B119" s="19"/>
+      <c r="C119" s="19"/>
     </row>
     <row r="120" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="17"/>
-      <c r="B120" s="17"/>
-      <c r="C120" s="17"/>
+      <c r="A120" s="19"/>
+      <c r="B120" s="19"/>
+      <c r="C120" s="19"/>
     </row>
     <row r="121" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="17"/>
-      <c r="B121" s="17"/>
-      <c r="C121" s="17"/>
+      <c r="A121" s="19"/>
+      <c r="B121" s="19"/>
+      <c r="C121" s="19"/>
     </row>
     <row r="122" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="17"/>
-      <c r="B122" s="17"/>
-      <c r="C122" s="17"/>
+      <c r="A122" s="19"/>
+      <c r="B122" s="19"/>
+      <c r="C122" s="19"/>
     </row>
     <row r="123" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="17"/>
-      <c r="B123" s="17"/>
-      <c r="C123" s="17"/>
+      <c r="A123" s="19"/>
+      <c r="B123" s="19"/>
+      <c r="C123" s="19"/>
     </row>
     <row r="124" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="17"/>
-      <c r="B124" s="17"/>
-      <c r="C124" s="17"/>
+      <c r="A124" s="19"/>
+      <c r="B124" s="19"/>
+      <c r="C124" s="19"/>
     </row>
     <row r="125" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="17"/>
-      <c r="B125" s="17"/>
-      <c r="C125" s="17"/>
+      <c r="A125" s="19"/>
+      <c r="B125" s="19"/>
+      <c r="C125" s="19"/>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A126" s="17"/>
-      <c r="B126" s="17"/>
-      <c r="C126" s="17"/>
+      <c r="A126" s="19"/>
+      <c r="B126" s="19"/>
+      <c r="C126" s="19"/>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A127" s="17"/>
-      <c r="B127" s="17"/>
-      <c r="C127" s="17"/>
+      <c r="A127" s="19"/>
+      <c r="B127" s="19"/>
+      <c r="C127" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2261,7 +2228,7 @@
   <dimension ref="D9:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2302,10 +2269,10 @@
         <v>64</v>
       </c>
       <c r="G11" s="6">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="H11" s="6">
-        <v>64</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="4:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">

--- a/resource/RolesOfLeadershipOverview.xlsx
+++ b/resource/RolesOfLeadershipOverview.xlsx
@@ -420,11 +420,6 @@
           <c:dPt>
             <c:idx val="1"/>
             <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:ln w="63500">
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000017-47A8-4FA6-A8D2-35ECC543778C}"/>
@@ -458,16 +453,16 @@
                 <c:formatCode>0_ </c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>64</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>100</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>95</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -528,16 +523,16 @@
                 <c:formatCode>0_ </c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>66</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>53</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>58</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>70</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -598,16 +593,16 @@
                 <c:formatCode>0_ </c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>61</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>64</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>60</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>64</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -668,16 +663,16 @@
                 <c:formatCode>0_ </c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>70</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>53</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>56</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>71</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -876,16 +871,16 @@
                 <c:formatCode>0_ </c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>64</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>100</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>100</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -945,16 +940,16 @@
                 <c:formatCode>0_ </c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>66</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>53</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>58</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>70</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1014,16 +1009,16 @@
                 <c:formatCode>0_ </c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>61</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>64</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>60</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>64</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1083,16 +1078,16 @@
                 <c:formatCode>0_ </c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>70</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>53</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>56</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>71</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1846,8 +1841,8 @@
   </sheetPr>
   <dimension ref="A1:H127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="P57" sqref="P57"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1882,16 +1877,16 @@
         <v>5</v>
       </c>
       <c r="E11" s="12">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F11" s="12">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="G11" s="12">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H11" s="13">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="4:8" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1899,16 +1894,16 @@
         <v>6</v>
       </c>
       <c r="E12" s="12">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="F12" s="12">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="G12" s="12">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="H12" s="13">
-        <v>70</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="4:8" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1916,16 +1911,16 @@
         <v>7</v>
       </c>
       <c r="E13" s="12">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="F13" s="12">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="G13" s="12">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="H13" s="13">
-        <v>64</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="4:8" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -1933,16 +1928,16 @@
         <v>8</v>
       </c>
       <c r="E14" s="15">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="F14" s="15">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="G14" s="15">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="H14" s="16">
-        <v>71</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="4:8" ht="55.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
@@ -2228,7 +2223,7 @@
   <dimension ref="D9:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2263,16 +2258,16 @@
         <v>5</v>
       </c>
       <c r="E11" s="6">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F11" s="6">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="G11" s="6">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H11" s="6">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="4:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2280,16 +2275,16 @@
         <v>6</v>
       </c>
       <c r="E12" s="6">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="F12" s="6">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="G12" s="6">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="H12" s="6">
-        <v>70</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="4:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2297,16 +2292,16 @@
         <v>7</v>
       </c>
       <c r="E13" s="6">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="F13" s="6">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="G13" s="6">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="H13" s="6">
-        <v>64</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="4:8" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2314,16 +2309,16 @@
         <v>8</v>
       </c>
       <c r="E14" s="6">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="F14" s="6">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="G14" s="6">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="H14" s="6">
-        <v>71</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="4:8" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
